--- a/salary_data.xlsx
+++ b/salary_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>الراتب الاسمي</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>الاسم</t>
+  </si>
+  <si>
+    <t>مرتضى عقيل ياس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدرس </t>
+  </si>
+  <si>
+    <t>تبارك</t>
+  </si>
+  <si>
+    <t>رويدة</t>
   </si>
 </sst>
 </file>
@@ -399,23 +411,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="1" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="12" max="12" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -453,7 +465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1111</v>
       </c>
@@ -464,7 +476,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2222</v>
       </c>
@@ -473,6 +485,60 @@
       </c>
       <c r="C3">
         <v>30000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3333</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>30000000</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>50000</v>
+      </c>
+      <c r="J4">
+        <v>500000</v>
+      </c>
+      <c r="K4">
+        <v>90000</v>
+      </c>
+      <c r="L4">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4444</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5555</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
